--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/皮革、毛皮、羽毛及其制品和制鞋业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/皮革、毛皮、羽毛及其制品和制鞋业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,1057 +463,1057 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.7644</v>
+        <v>101.2953</v>
       </c>
       <c r="C2" t="n">
-        <v>99.9179</v>
+        <v>101.6463</v>
       </c>
       <c r="D2" t="n">
-        <v>101.1166</v>
+        <v>101.2519</v>
       </c>
       <c r="E2" t="n">
-        <v>101.3364</v>
+        <v>103.4932</v>
       </c>
       <c r="F2" t="n">
-        <v>98.9652</v>
+        <v>109.7556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.6355</v>
+        <v>101.2378</v>
       </c>
       <c r="C3" t="n">
-        <v>99.95950000000001</v>
+        <v>101.7075</v>
       </c>
       <c r="D3" t="n">
-        <v>100.996</v>
+        <v>101.2606</v>
       </c>
       <c r="E3" t="n">
-        <v>101.7155</v>
+        <v>103.077</v>
       </c>
       <c r="F3" t="n">
-        <v>98.1875</v>
+        <v>109.4481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.6743</v>
+        <v>101.7298</v>
       </c>
       <c r="C4" t="n">
-        <v>99.7872</v>
+        <v>101.8288</v>
       </c>
       <c r="D4" t="n">
-        <v>100.8895</v>
+        <v>101.8246</v>
       </c>
       <c r="E4" t="n">
-        <v>101.6905</v>
+        <v>102.3633</v>
       </c>
       <c r="F4" t="n">
-        <v>97.8151</v>
+        <v>109.179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.2953</v>
+        <v>101.7426</v>
       </c>
       <c r="C5" t="n">
-        <v>101.6463</v>
+        <v>102.2671</v>
       </c>
       <c r="D5" t="n">
-        <v>101.2519</v>
+        <v>101.5823</v>
       </c>
       <c r="E5" t="n">
-        <v>103.4932</v>
+        <v>102.5334</v>
       </c>
       <c r="F5" t="n">
-        <v>109.7556</v>
+        <v>107.3287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.2378</v>
+        <v>102.0942</v>
       </c>
       <c r="C6" t="n">
-        <v>101.7075</v>
+        <v>101.7256</v>
       </c>
       <c r="D6" t="n">
-        <v>101.2606</v>
+        <v>101.3761</v>
       </c>
       <c r="E6" t="n">
-        <v>103.077</v>
+        <v>102.4531</v>
       </c>
       <c r="F6" t="n">
-        <v>109.4481</v>
+        <v>102.5117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.7298</v>
+        <v>102.2125</v>
       </c>
       <c r="C7" t="n">
-        <v>101.8288</v>
+        <v>101.1988</v>
       </c>
       <c r="D7" t="n">
-        <v>101.8246</v>
+        <v>100.9948</v>
       </c>
       <c r="E7" t="n">
-        <v>102.3633</v>
+        <v>102.2605</v>
       </c>
       <c r="F7" t="n">
-        <v>109.179</v>
+        <v>101.7315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.7426</v>
+        <v>102.2061</v>
       </c>
       <c r="C8" t="n">
-        <v>102.2671</v>
+        <v>99.99469999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>101.5823</v>
+        <v>101.1407</v>
       </c>
       <c r="E8" t="n">
-        <v>102.5334</v>
+        <v>101.8856</v>
       </c>
       <c r="F8" t="n">
-        <v>107.3287</v>
+        <v>102.4769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.0942</v>
+        <v>102.0718</v>
       </c>
       <c r="C9" t="n">
-        <v>101.7256</v>
+        <v>100.2754</v>
       </c>
       <c r="D9" t="n">
-        <v>101.3761</v>
+        <v>100.2841</v>
       </c>
       <c r="E9" t="n">
-        <v>102.4531</v>
+        <v>101.9063</v>
       </c>
       <c r="F9" t="n">
-        <v>102.5117</v>
+        <v>101.9878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.2125</v>
+        <v>102.2685</v>
       </c>
       <c r="C10" t="n">
-        <v>101.1988</v>
+        <v>100.2654</v>
       </c>
       <c r="D10" t="n">
-        <v>100.9948</v>
+        <v>100.6504</v>
       </c>
       <c r="E10" t="n">
-        <v>102.2605</v>
+        <v>101.536</v>
       </c>
       <c r="F10" t="n">
-        <v>101.7315</v>
+        <v>100.3303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.2061</v>
+        <v>101.7644</v>
       </c>
       <c r="C11" t="n">
-        <v>99.99469999999999</v>
+        <v>99.9179</v>
       </c>
       <c r="D11" t="n">
-        <v>101.1407</v>
+        <v>101.1166</v>
       </c>
       <c r="E11" t="n">
-        <v>101.8856</v>
+        <v>101.3364</v>
       </c>
       <c r="F11" t="n">
-        <v>102.4769</v>
+        <v>98.9652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.0718</v>
+        <v>101.6355</v>
       </c>
       <c r="C12" t="n">
-        <v>100.2754</v>
+        <v>99.95950000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>100.2841</v>
+        <v>100.996</v>
       </c>
       <c r="E12" t="n">
-        <v>101.9063</v>
+        <v>101.7155</v>
       </c>
       <c r="F12" t="n">
-        <v>101.9878</v>
+        <v>98.1875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.2685</v>
+        <v>101.6743</v>
       </c>
       <c r="C13" t="n">
-        <v>100.2654</v>
+        <v>99.7872</v>
       </c>
       <c r="D13" t="n">
-        <v>100.6504</v>
+        <v>100.8895</v>
       </c>
       <c r="E13" t="n">
-        <v>101.536</v>
+        <v>101.6905</v>
       </c>
       <c r="F13" t="n">
-        <v>100.3303</v>
+        <v>97.8151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.4</v>
+        <v>101.8137</v>
       </c>
       <c r="C14" t="n">
-        <v>101.4</v>
+        <v>99.8591</v>
       </c>
       <c r="D14" t="n">
-        <v>100.8</v>
+        <v>100.8577</v>
       </c>
       <c r="E14" t="n">
-        <v>102.1</v>
+        <v>101.7896</v>
       </c>
       <c r="F14" t="n">
-        <v>95.5</v>
+        <v>97.80800000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.3852</v>
+        <v>101.7065</v>
       </c>
       <c r="C15" t="n">
-        <v>101.1971</v>
+        <v>99.82980000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>100.6236</v>
+        <v>100.7928</v>
       </c>
       <c r="E15" t="n">
-        <v>101.6869</v>
+        <v>101.8382</v>
       </c>
       <c r="F15" t="n">
-        <v>95.25020000000001</v>
+        <v>97.72369999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.7213</v>
+        <v>101.3272</v>
       </c>
       <c r="C16" t="n">
-        <v>101.0815</v>
+        <v>99.1464</v>
       </c>
       <c r="D16" t="n">
-        <v>100.8133</v>
+        <v>100.3832</v>
       </c>
       <c r="E16" t="n">
-        <v>101.7216</v>
+        <v>101.7224</v>
       </c>
       <c r="F16" t="n">
-        <v>94.8142</v>
+        <v>96.1994</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.8137</v>
+        <v>100.9462</v>
       </c>
       <c r="C17" t="n">
-        <v>99.8591</v>
+        <v>99.3845</v>
       </c>
       <c r="D17" t="n">
-        <v>100.8577</v>
+        <v>100.1954</v>
       </c>
       <c r="E17" t="n">
-        <v>101.7896</v>
+        <v>101.8026</v>
       </c>
       <c r="F17" t="n">
-        <v>97.80800000000001</v>
+        <v>95.6151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.7065</v>
+        <v>100.7765</v>
       </c>
       <c r="C18" t="n">
-        <v>99.82980000000001</v>
+        <v>99.7273</v>
       </c>
       <c r="D18" t="n">
-        <v>100.7928</v>
+        <v>100.2604</v>
       </c>
       <c r="E18" t="n">
-        <v>101.8382</v>
+        <v>101.5796</v>
       </c>
       <c r="F18" t="n">
-        <v>97.72369999999999</v>
+        <v>95.9746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.3272</v>
+        <v>100.5389</v>
       </c>
       <c r="C19" t="n">
-        <v>99.1464</v>
+        <v>100.4408</v>
       </c>
       <c r="D19" t="n">
-        <v>100.3832</v>
+        <v>100.0931</v>
       </c>
       <c r="E19" t="n">
-        <v>101.7224</v>
+        <v>101.4225</v>
       </c>
       <c r="F19" t="n">
-        <v>96.1994</v>
+        <v>95.13339999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.9462</v>
+        <v>100.3906</v>
       </c>
       <c r="C20" t="n">
-        <v>99.3845</v>
+        <v>101.3481</v>
       </c>
       <c r="D20" t="n">
-        <v>100.1954</v>
+        <v>99.96810000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>101.8026</v>
+        <v>101.8416</v>
       </c>
       <c r="F20" t="n">
-        <v>95.6151</v>
+        <v>94.96250000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.7765</v>
+        <v>100.5647</v>
       </c>
       <c r="C21" t="n">
-        <v>99.7273</v>
+        <v>101.127</v>
       </c>
       <c r="D21" t="n">
-        <v>100.2604</v>
+        <v>100.9959</v>
       </c>
       <c r="E21" t="n">
-        <v>101.5796</v>
+        <v>101.7351</v>
       </c>
       <c r="F21" t="n">
-        <v>95.9746</v>
+        <v>94.893</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.5389</v>
+        <v>101.3795</v>
       </c>
       <c r="C22" t="n">
-        <v>100.4408</v>
+        <v>101.3167</v>
       </c>
       <c r="D22" t="n">
-        <v>100.0931</v>
+        <v>101.2431</v>
       </c>
       <c r="E22" t="n">
-        <v>101.4225</v>
+        <v>101.9757</v>
       </c>
       <c r="F22" t="n">
-        <v>95.13339999999999</v>
+        <v>95.2218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.3906</v>
+        <v>101.4</v>
       </c>
       <c r="C23" t="n">
-        <v>101.3481</v>
+        <v>101.4</v>
       </c>
       <c r="D23" t="n">
-        <v>99.96810000000001</v>
+        <v>100.8</v>
       </c>
       <c r="E23" t="n">
-        <v>101.8416</v>
+        <v>102.1</v>
       </c>
       <c r="F23" t="n">
-        <v>94.96250000000001</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.5647</v>
+        <v>101.3852</v>
       </c>
       <c r="C24" t="n">
-        <v>101.127</v>
+        <v>101.1971</v>
       </c>
       <c r="D24" t="n">
-        <v>100.9959</v>
+        <v>100.6236</v>
       </c>
       <c r="E24" t="n">
-        <v>101.7351</v>
+        <v>101.6869</v>
       </c>
       <c r="F24" t="n">
-        <v>94.893</v>
+        <v>95.25020000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.3795</v>
+        <v>101.7213</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3167</v>
+        <v>101.0815</v>
       </c>
       <c r="D25" t="n">
-        <v>101.2431</v>
+        <v>100.8133</v>
       </c>
       <c r="E25" t="n">
-        <v>101.9757</v>
+        <v>101.7216</v>
       </c>
       <c r="F25" t="n">
-        <v>95.2218</v>
+        <v>94.8142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.4</v>
+        <v>101.8395</v>
       </c>
       <c r="C26" t="n">
-        <v>98.40000000000001</v>
+        <v>99.7306</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9</v>
+        <v>100.8939</v>
       </c>
       <c r="E26" t="n">
-        <v>99.3</v>
+        <v>102.2215</v>
       </c>
       <c r="F26" t="n">
-        <v>96.3</v>
+        <v>95.491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.7</v>
+        <v>101.9199</v>
       </c>
       <c r="C27" t="n">
-        <v>98.7</v>
+        <v>100.0218</v>
       </c>
       <c r="D27" t="n">
-        <v>100.8</v>
+        <v>100.9121</v>
       </c>
       <c r="E27" t="n">
-        <v>99.2</v>
+        <v>101.9298</v>
       </c>
       <c r="F27" t="n">
-        <v>96.90000000000001</v>
+        <v>95.4123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.6</v>
+        <v>102.0379</v>
       </c>
       <c r="C28" t="n">
-        <v>98.3</v>
+        <v>100.5215</v>
       </c>
       <c r="D28" t="n">
-        <v>100.8</v>
+        <v>100.7917</v>
       </c>
       <c r="E28" t="n">
-        <v>99</v>
+        <v>101.7721</v>
       </c>
       <c r="F28" t="n">
-        <v>99</v>
+        <v>95.6349</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.8395</v>
+        <v>101.7345</v>
       </c>
       <c r="C29" t="n">
-        <v>99.7306</v>
+        <v>99.8475</v>
       </c>
       <c r="D29" t="n">
-        <v>100.8939</v>
+        <v>100.7303</v>
       </c>
       <c r="E29" t="n">
-        <v>102.2215</v>
+        <v>101.2515</v>
       </c>
       <c r="F29" t="n">
-        <v>95.491</v>
+        <v>95.8205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.9199</v>
+        <v>101.6</v>
       </c>
       <c r="C30" t="n">
-        <v>100.0218</v>
+        <v>100.3</v>
       </c>
       <c r="D30" t="n">
-        <v>100.9121</v>
+        <v>101</v>
       </c>
       <c r="E30" t="n">
-        <v>101.9298</v>
+        <v>100.9</v>
       </c>
       <c r="F30" t="n">
-        <v>95.4123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0379</v>
+        <v>102.2</v>
       </c>
       <c r="C31" t="n">
-        <v>100.5215</v>
+        <v>99.7</v>
       </c>
       <c r="D31" t="n">
-        <v>100.7917</v>
+        <v>101.1</v>
       </c>
       <c r="E31" t="n">
-        <v>101.7721</v>
+        <v>100.8</v>
       </c>
       <c r="F31" t="n">
-        <v>95.6349</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.7345</v>
+        <v>102.2</v>
       </c>
       <c r="C32" t="n">
-        <v>99.8475</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>100.7303</v>
+        <v>101.3</v>
       </c>
       <c r="E32" t="n">
-        <v>101.2515</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>95.8205</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
       <c r="C33" t="n">
-        <v>100.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="E33" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="F33" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.2</v>
+        <v>101.3</v>
       </c>
       <c r="C34" t="n">
-        <v>99.7</v>
+        <v>98.2</v>
       </c>
       <c r="D34" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="E34" t="n">
-        <v>100.8</v>
+        <v>99.2</v>
       </c>
       <c r="F34" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.2</v>
+        <v>101.4</v>
       </c>
       <c r="C35" t="n">
-        <v>99.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="E35" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="F35" t="n">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="C36" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D36" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="E36" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="F36" t="n">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="C37" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D37" t="n">
         <v>100.8</v>
       </c>
       <c r="E37" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="F37" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.4</v>
+        <v>101.3</v>
       </c>
       <c r="C38" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D38" t="n">
         <v>101</v>
       </c>
-      <c r="D38" t="n">
-        <v>101.8</v>
-      </c>
       <c r="E38" t="n">
-        <v>100.8</v>
+        <v>99.2</v>
       </c>
       <c r="F38" t="n">
-        <v>107.5</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
       <c r="C39" t="n">
-        <v>100.5</v>
+        <v>99</v>
       </c>
       <c r="D39" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="E39" t="n">
-        <v>100.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>106.8</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B40" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>99</v>
+      </c>
+      <c r="D40" t="n">
+        <v>101</v>
+      </c>
+      <c r="E40" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C40" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>101.1</v>
-      </c>
       <c r="F40" t="n">
-        <v>106.6</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101.3</v>
+        <v>101.8</v>
       </c>
       <c r="C41" t="n">
-        <v>98.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D41" t="n">
         <v>101</v>
       </c>
       <c r="E41" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>98.90000000000001</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.1</v>
+        <v>101.8</v>
       </c>
       <c r="C42" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="D42" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="E42" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="F42" t="n">
-        <v>99.09999999999999</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C43" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="D43" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="E43" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="F43" t="n">
-        <v>99.90000000000001</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C44" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="E44" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="F44" t="n">
-        <v>100.9</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.8</v>
+        <v>100.9</v>
       </c>
       <c r="C45" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="E45" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="F45" t="n">
-        <v>101.9</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="C46" t="n">
-        <v>99.2</v>
+        <v>100.7</v>
       </c>
       <c r="D46" t="n">
-        <v>101.1</v>
+        <v>101.7</v>
       </c>
       <c r="E46" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="F46" t="n">
-        <v>102.7</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="C47" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D47" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="E47" t="n">
         <v>100.8</v>
       </c>
-      <c r="E47" t="n">
-        <v>100.2</v>
-      </c>
       <c r="F47" t="n">
-        <v>103.7</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B48" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="E48" t="n">
         <v>100.9</v>
       </c>
-      <c r="C48" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>100.7</v>
-      </c>
       <c r="F48" t="n">
-        <v>104.9</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="D49" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="E49" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="F49" t="n">
-        <v>107.3</v>
+        <v>106.6</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/皮革、毛皮、羽毛及其制品和制鞋业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/皮革、毛皮、羽毛及其制品和制鞋业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,1057 +463,1057 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.2953</v>
+        <v>101.7644</v>
       </c>
       <c r="C2" t="n">
-        <v>101.6463</v>
+        <v>99.9179</v>
       </c>
       <c r="D2" t="n">
-        <v>101.2519</v>
+        <v>101.1166</v>
       </c>
       <c r="E2" t="n">
-        <v>103.4932</v>
+        <v>101.3364</v>
       </c>
       <c r="F2" t="n">
-        <v>109.7556</v>
+        <v>98.9652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.2378</v>
+        <v>101.6355</v>
       </c>
       <c r="C3" t="n">
-        <v>101.7075</v>
+        <v>99.95950000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>101.2606</v>
+        <v>100.996</v>
       </c>
       <c r="E3" t="n">
-        <v>103.077</v>
+        <v>101.7155</v>
       </c>
       <c r="F3" t="n">
-        <v>109.4481</v>
+        <v>98.1875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.7298</v>
+        <v>101.6743</v>
       </c>
       <c r="C4" t="n">
-        <v>101.8288</v>
+        <v>99.7872</v>
       </c>
       <c r="D4" t="n">
-        <v>101.8246</v>
+        <v>100.8895</v>
       </c>
       <c r="E4" t="n">
-        <v>102.3633</v>
+        <v>101.6905</v>
       </c>
       <c r="F4" t="n">
-        <v>109.179</v>
+        <v>97.8151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.7426</v>
+        <v>101.2953</v>
       </c>
       <c r="C5" t="n">
-        <v>102.2671</v>
+        <v>101.6463</v>
       </c>
       <c r="D5" t="n">
-        <v>101.5823</v>
+        <v>101.2519</v>
       </c>
       <c r="E5" t="n">
-        <v>102.5334</v>
+        <v>103.4932</v>
       </c>
       <c r="F5" t="n">
-        <v>107.3287</v>
+        <v>109.7556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.0942</v>
+        <v>101.2378</v>
       </c>
       <c r="C6" t="n">
-        <v>101.7256</v>
+        <v>101.7075</v>
       </c>
       <c r="D6" t="n">
-        <v>101.3761</v>
+        <v>101.2606</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4531</v>
+        <v>103.077</v>
       </c>
       <c r="F6" t="n">
-        <v>102.5117</v>
+        <v>109.4481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.2125</v>
+        <v>101.7298</v>
       </c>
       <c r="C7" t="n">
-        <v>101.1988</v>
+        <v>101.8288</v>
       </c>
       <c r="D7" t="n">
-        <v>100.9948</v>
+        <v>101.8246</v>
       </c>
       <c r="E7" t="n">
-        <v>102.2605</v>
+        <v>102.3633</v>
       </c>
       <c r="F7" t="n">
-        <v>101.7315</v>
+        <v>109.179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.2061</v>
+        <v>101.7426</v>
       </c>
       <c r="C8" t="n">
-        <v>99.99469999999999</v>
+        <v>102.2671</v>
       </c>
       <c r="D8" t="n">
-        <v>101.1407</v>
+        <v>101.5823</v>
       </c>
       <c r="E8" t="n">
-        <v>101.8856</v>
+        <v>102.5334</v>
       </c>
       <c r="F8" t="n">
-        <v>102.4769</v>
+        <v>107.3287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.0718</v>
+        <v>102.0942</v>
       </c>
       <c r="C9" t="n">
-        <v>100.2754</v>
+        <v>101.7256</v>
       </c>
       <c r="D9" t="n">
-        <v>100.2841</v>
+        <v>101.3761</v>
       </c>
       <c r="E9" t="n">
-        <v>101.9063</v>
+        <v>102.4531</v>
       </c>
       <c r="F9" t="n">
-        <v>101.9878</v>
+        <v>102.5117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.2685</v>
+        <v>102.2125</v>
       </c>
       <c r="C10" t="n">
-        <v>100.2654</v>
+        <v>101.1988</v>
       </c>
       <c r="D10" t="n">
-        <v>100.6504</v>
+        <v>100.9948</v>
       </c>
       <c r="E10" t="n">
-        <v>101.536</v>
+        <v>102.2605</v>
       </c>
       <c r="F10" t="n">
-        <v>100.3303</v>
+        <v>101.7315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.7644</v>
+        <v>102.2061</v>
       </c>
       <c r="C11" t="n">
-        <v>99.9179</v>
+        <v>99.99469999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>101.1166</v>
+        <v>101.1407</v>
       </c>
       <c r="E11" t="n">
-        <v>101.3364</v>
+        <v>101.8856</v>
       </c>
       <c r="F11" t="n">
-        <v>98.9652</v>
+        <v>102.4769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.6355</v>
+        <v>102.0718</v>
       </c>
       <c r="C12" t="n">
-        <v>99.95950000000001</v>
+        <v>100.2754</v>
       </c>
       <c r="D12" t="n">
-        <v>100.996</v>
+        <v>100.2841</v>
       </c>
       <c r="E12" t="n">
-        <v>101.7155</v>
+        <v>101.9063</v>
       </c>
       <c r="F12" t="n">
-        <v>98.1875</v>
+        <v>101.9878</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.6743</v>
+        <v>102.2685</v>
       </c>
       <c r="C13" t="n">
-        <v>99.7872</v>
+        <v>100.2654</v>
       </c>
       <c r="D13" t="n">
-        <v>100.8895</v>
+        <v>100.6504</v>
       </c>
       <c r="E13" t="n">
-        <v>101.6905</v>
+        <v>101.536</v>
       </c>
       <c r="F13" t="n">
-        <v>97.8151</v>
+        <v>100.3303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.8137</v>
+        <v>101.4</v>
       </c>
       <c r="C14" t="n">
-        <v>99.8591</v>
+        <v>101.4</v>
       </c>
       <c r="D14" t="n">
-        <v>100.8577</v>
+        <v>100.8</v>
       </c>
       <c r="E14" t="n">
-        <v>101.7896</v>
+        <v>102.1</v>
       </c>
       <c r="F14" t="n">
-        <v>97.80800000000001</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.7065</v>
+        <v>101.3852</v>
       </c>
       <c r="C15" t="n">
-        <v>99.82980000000001</v>
+        <v>101.1971</v>
       </c>
       <c r="D15" t="n">
-        <v>100.7928</v>
+        <v>100.6236</v>
       </c>
       <c r="E15" t="n">
-        <v>101.8382</v>
+        <v>101.6869</v>
       </c>
       <c r="F15" t="n">
-        <v>97.72369999999999</v>
+        <v>95.25020000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.3272</v>
+        <v>101.7213</v>
       </c>
       <c r="C16" t="n">
-        <v>99.1464</v>
+        <v>101.0815</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3832</v>
+        <v>100.8133</v>
       </c>
       <c r="E16" t="n">
-        <v>101.7224</v>
+        <v>101.7216</v>
       </c>
       <c r="F16" t="n">
-        <v>96.1994</v>
+        <v>94.8142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.9462</v>
+        <v>101.8137</v>
       </c>
       <c r="C17" t="n">
-        <v>99.3845</v>
+        <v>99.8591</v>
       </c>
       <c r="D17" t="n">
-        <v>100.1954</v>
+        <v>100.8577</v>
       </c>
       <c r="E17" t="n">
-        <v>101.8026</v>
+        <v>101.7896</v>
       </c>
       <c r="F17" t="n">
-        <v>95.6151</v>
+        <v>97.80800000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.7765</v>
+        <v>101.7065</v>
       </c>
       <c r="C18" t="n">
-        <v>99.7273</v>
+        <v>99.82980000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>100.2604</v>
+        <v>100.7928</v>
       </c>
       <c r="E18" t="n">
-        <v>101.5796</v>
+        <v>101.8382</v>
       </c>
       <c r="F18" t="n">
-        <v>95.9746</v>
+        <v>97.72369999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.5389</v>
+        <v>101.3272</v>
       </c>
       <c r="C19" t="n">
-        <v>100.4408</v>
+        <v>99.1464</v>
       </c>
       <c r="D19" t="n">
-        <v>100.0931</v>
+        <v>100.3832</v>
       </c>
       <c r="E19" t="n">
-        <v>101.4225</v>
+        <v>101.7224</v>
       </c>
       <c r="F19" t="n">
-        <v>95.13339999999999</v>
+        <v>96.1994</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.3906</v>
+        <v>100.9462</v>
       </c>
       <c r="C20" t="n">
-        <v>101.3481</v>
+        <v>99.3845</v>
       </c>
       <c r="D20" t="n">
-        <v>99.96810000000001</v>
+        <v>100.1954</v>
       </c>
       <c r="E20" t="n">
-        <v>101.8416</v>
+        <v>101.8026</v>
       </c>
       <c r="F20" t="n">
-        <v>94.96250000000001</v>
+        <v>95.6151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.5647</v>
+        <v>100.7765</v>
       </c>
       <c r="C21" t="n">
-        <v>101.127</v>
+        <v>99.7273</v>
       </c>
       <c r="D21" t="n">
-        <v>100.9959</v>
+        <v>100.2604</v>
       </c>
       <c r="E21" t="n">
-        <v>101.7351</v>
+        <v>101.5796</v>
       </c>
       <c r="F21" t="n">
-        <v>94.893</v>
+        <v>95.9746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.3795</v>
+        <v>100.5389</v>
       </c>
       <c r="C22" t="n">
-        <v>101.3167</v>
+        <v>100.4408</v>
       </c>
       <c r="D22" t="n">
-        <v>101.2431</v>
+        <v>100.0931</v>
       </c>
       <c r="E22" t="n">
-        <v>101.9757</v>
+        <v>101.4225</v>
       </c>
       <c r="F22" t="n">
-        <v>95.2218</v>
+        <v>95.13339999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101.4</v>
+        <v>100.3906</v>
       </c>
       <c r="C23" t="n">
-        <v>101.4</v>
+        <v>101.3481</v>
       </c>
       <c r="D23" t="n">
-        <v>100.8</v>
+        <v>99.96810000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>102.1</v>
+        <v>101.8416</v>
       </c>
       <c r="F23" t="n">
-        <v>95.5</v>
+        <v>94.96250000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.3852</v>
+        <v>100.5647</v>
       </c>
       <c r="C24" t="n">
-        <v>101.1971</v>
+        <v>101.127</v>
       </c>
       <c r="D24" t="n">
-        <v>100.6236</v>
+        <v>100.9959</v>
       </c>
       <c r="E24" t="n">
-        <v>101.6869</v>
+        <v>101.7351</v>
       </c>
       <c r="F24" t="n">
-        <v>95.25020000000001</v>
+        <v>94.893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.7213</v>
+        <v>101.3795</v>
       </c>
       <c r="C25" t="n">
-        <v>101.0815</v>
+        <v>101.3167</v>
       </c>
       <c r="D25" t="n">
-        <v>100.8133</v>
+        <v>101.2431</v>
       </c>
       <c r="E25" t="n">
-        <v>101.7216</v>
+        <v>101.9757</v>
       </c>
       <c r="F25" t="n">
-        <v>94.8142</v>
+        <v>95.2218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.8395</v>
+        <v>101.4</v>
       </c>
       <c r="C26" t="n">
-        <v>99.7306</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>100.8939</v>
+        <v>100.9</v>
       </c>
       <c r="E26" t="n">
-        <v>102.2215</v>
+        <v>99.3</v>
       </c>
       <c r="F26" t="n">
-        <v>95.491</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.9199</v>
+        <v>101.7</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0218</v>
+        <v>98.7</v>
       </c>
       <c r="D27" t="n">
-        <v>100.9121</v>
+        <v>100.8</v>
       </c>
       <c r="E27" t="n">
-        <v>101.9298</v>
+        <v>99.2</v>
       </c>
       <c r="F27" t="n">
-        <v>95.4123</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.0379</v>
+        <v>101.6</v>
       </c>
       <c r="C28" t="n">
-        <v>100.5215</v>
+        <v>98.3</v>
       </c>
       <c r="D28" t="n">
-        <v>100.7917</v>
+        <v>100.8</v>
       </c>
       <c r="E28" t="n">
-        <v>101.7721</v>
+        <v>99</v>
       </c>
       <c r="F28" t="n">
-        <v>95.6349</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.7345</v>
+        <v>101.8395</v>
       </c>
       <c r="C29" t="n">
-        <v>99.8475</v>
+        <v>99.7306</v>
       </c>
       <c r="D29" t="n">
-        <v>100.7303</v>
+        <v>100.8939</v>
       </c>
       <c r="E29" t="n">
-        <v>101.2515</v>
+        <v>102.2215</v>
       </c>
       <c r="F29" t="n">
-        <v>95.8205</v>
+        <v>95.491</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.6</v>
+        <v>101.9199</v>
       </c>
       <c r="C30" t="n">
-        <v>100.3</v>
+        <v>100.0218</v>
       </c>
       <c r="D30" t="n">
-        <v>101</v>
+        <v>100.9121</v>
       </c>
       <c r="E30" t="n">
-        <v>100.9</v>
+        <v>101.9298</v>
       </c>
       <c r="F30" t="n">
-        <v>96</v>
+        <v>95.4123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.2</v>
+        <v>102.0379</v>
       </c>
       <c r="C31" t="n">
-        <v>99.7</v>
+        <v>100.5215</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1</v>
+        <v>100.7917</v>
       </c>
       <c r="E31" t="n">
-        <v>100.8</v>
+        <v>101.7721</v>
       </c>
       <c r="F31" t="n">
-        <v>96.2</v>
+        <v>95.6349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.2</v>
+        <v>101.7345</v>
       </c>
       <c r="C32" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8475</v>
       </c>
       <c r="D32" t="n">
-        <v>101.3</v>
+        <v>100.7303</v>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>101.2515</v>
       </c>
       <c r="F32" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102</v>
+        <v>101.6</v>
       </c>
       <c r="C33" t="n">
-        <v>98.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="D33" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="E33" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="F33" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.3</v>
+        <v>102.2</v>
       </c>
       <c r="C34" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="D34" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E34" t="n">
         <v>100.8</v>
       </c>
-      <c r="E34" t="n">
-        <v>99.2</v>
-      </c>
       <c r="F34" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.4</v>
+        <v>102.2</v>
       </c>
       <c r="C35" t="n">
-        <v>98.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="E35" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="C36" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="E36" t="n">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="F36" t="n">
-        <v>96.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="C37" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="D37" t="n">
         <v>100.8</v>
       </c>
       <c r="E37" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="F37" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.3</v>
+        <v>100.4</v>
       </c>
       <c r="C38" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>101.8</v>
       </c>
       <c r="E38" t="n">
-        <v>99.2</v>
+        <v>100.8</v>
       </c>
       <c r="F38" t="n">
-        <v>98.90000000000001</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="C39" t="n">
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="D39" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
       <c r="E39" t="n">
-        <v>99.40000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="F39" t="n">
-        <v>99.09999999999999</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>99</v>
+        <v>100.9</v>
       </c>
       <c r="D40" t="n">
-        <v>101</v>
+        <v>101.6</v>
       </c>
       <c r="E40" t="n">
-        <v>99.59999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="F40" t="n">
-        <v>99.90000000000001</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101.8</v>
+        <v>101.3</v>
       </c>
       <c r="C41" t="n">
-        <v>99.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D41" t="n">
         <v>101</v>
       </c>
       <c r="E41" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F41" t="n">
-        <v>100.9</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.8</v>
+        <v>101.1</v>
       </c>
       <c r="C42" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="D42" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="E42" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>101.9</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="C43" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="D43" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="E43" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>102.7</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>101.2</v>
+        <v>101.8</v>
       </c>
       <c r="C44" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="E44" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>103.7</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.9</v>
+        <v>101.8</v>
       </c>
       <c r="C45" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D45" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="E45" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="F45" t="n">
-        <v>104.9</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="C46" t="n">
-        <v>100.7</v>
+        <v>99.2</v>
       </c>
       <c r="D46" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="E46" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="F46" t="n">
-        <v>107.3</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="C47" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>101.8</v>
+        <v>100.8</v>
       </c>
       <c r="E47" t="n">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
       <c r="F47" t="n">
-        <v>107.5</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="C48" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="E48" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="F48" t="n">
-        <v>106.8</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="C49" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="E49" t="n">
         <v>100.9</v>
       </c>
-      <c r="D49" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>101.1</v>
-      </c>
       <c r="F49" t="n">
-        <v>106.6</v>
+        <v>107.3</v>
       </c>
     </row>
   </sheetData>
